--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MSEE\SoC_Design\Final Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CompEng\gitRep\SoC_final_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71523201-B14F-4C0B-99CA-AB1E053EC136}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D3FBD8A-1B6D-47C7-B62E-69EE7B90B338}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{EFDEED66-2AC6-40EE-97D0-6E8EB565F335}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{EFDEED66-2AC6-40EE-97D0-6E8EB565F335}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>Design 1 - Final Project - Bill of Materials</t>
   </si>
@@ -97,6 +97,15 @@
   </si>
   <si>
     <t>LM2596</t>
+  </si>
+  <si>
+    <t>https://www.pololu.com/product/1372</t>
+  </si>
+  <si>
+    <t>Pololu Simple Motor Controller 18v7 (Fully Assembled)</t>
+  </si>
+  <si>
+    <t>pololu 1372</t>
   </si>
 </sst>
 </file>
@@ -546,19 +555,19 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="45.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="93.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.81640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="93.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -567,7 +576,7 @@
       <c r="D1" s="10"/>
       <c r="E1" s="10"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>5</v>
       </c>
@@ -584,7 +593,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -601,7 +610,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -618,7 +627,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -635,7 +644,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -652,7 +661,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -661,7 +670,7 @@
       </c>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -675,69 +684,82 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="2"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>41.95</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B10" s="2"/>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B11" s="2"/>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B12" s="2"/>
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B13" s="2"/>
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B14" s="2"/>
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B15" s="2"/>
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B16" s="2"/>
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B17" s="2"/>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B18" s="2"/>
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B19" s="2"/>
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B20" s="2"/>
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B21" s="2"/>
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B22" s="2"/>
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B23" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C23" s="7">
         <f>SUMPRODUCT(B3:B20, C3:C20)</f>
-        <v>49.929999999999993</v>
+        <v>91.88</v>
       </c>
     </row>
   </sheetData>
@@ -749,8 +771,9 @@
     <hyperlink ref="E4" r:id="rId2" display="https://store.digilentinc.com/pmod-acl-3-axis-accelerometer/" xr:uid="{38CB2362-EBC8-4073-99E6-C055A7CAC984}"/>
     <hyperlink ref="E5" r:id="rId3" xr:uid="{E5705B1D-0A78-48E0-B0FF-ACCB526E0475}"/>
     <hyperlink ref="E6" r:id="rId4" display="https://www.pololu.com/product/2858" xr:uid="{C0A8B3E7-2647-4D7A-8846-00EFFB24F0C7}"/>
+    <hyperlink ref="E9" r:id="rId5" xr:uid="{A85766DE-224C-4B9C-80FC-480C86187C9D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>